--- a/docroot/file/import_employee_template.xlsx
+++ b/docroot/file/import_employee_template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Goingjesse\Projects\TYW (ตั้งยิ่งวัฒนา)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GJ-Chokanan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>Position Group</t>
   </si>
   <si>
-    <t>Supervisor Employee Code</t>
-  </si>
-  <si>
     <t>Salary Amount</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Chief Employee Code</t>
   </si>
 </sst>
 </file>
@@ -444,32 +444,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="2"/>
-    <col min="2" max="2" width="34.44140625" style="2"/>
-    <col min="3" max="3" width="29.44140625" style="4"/>
-    <col min="4" max="4" width="29.6640625" style="4"/>
-    <col min="5" max="5" width="27.109375" style="4"/>
-    <col min="6" max="6" width="16.44140625" style="2"/>
-    <col min="7" max="7" width="20.21875" style="2"/>
-    <col min="8" max="8" width="12.5546875" style="2"/>
-    <col min="9" max="9" width="29.77734375" style="2"/>
-    <col min="10" max="10" width="13.109375" style="2"/>
-    <col min="11" max="11" width="32.44140625" style="2"/>
-    <col min="12" max="12" width="13.77734375" style="2"/>
-    <col min="13" max="13" width="23.88671875" style="2"/>
-    <col min="14" max="14" width="13.77734375" style="2"/>
-    <col min="15" max="15" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="14.42578125" style="2"/>
+    <col min="2" max="2" width="34.42578125" style="2"/>
+    <col min="3" max="3" width="29.42578125" style="4"/>
+    <col min="4" max="4" width="29.7109375" style="4"/>
+    <col min="5" max="5" width="27.140625" style="4"/>
+    <col min="6" max="6" width="16.42578125" style="2"/>
+    <col min="7" max="7" width="20.28515625" style="2"/>
+    <col min="8" max="8" width="12.5703125" style="2"/>
+    <col min="9" max="9" width="29.7109375" style="2"/>
+    <col min="10" max="10" width="13.140625" style="2"/>
+    <col min="11" max="11" width="32.42578125" style="2"/>
+    <col min="12" max="12" width="13.7109375" style="2"/>
+    <col min="13" max="13" width="23.85546875" style="2"/>
+    <col min="14" max="14" width="13.7109375" style="2"/>
+    <col min="15" max="15" width="8.7109375" style="2"/>
     <col min="16" max="16" width="14" style="2"/>
-    <col min="17" max="17" width="23.6640625" style="2"/>
-    <col min="18" max="1005" width="11.33203125" style="2"/>
-    <col min="1006" max="16384" width="8.88671875" style="2"/>
+    <col min="17" max="17" width="23.7109375" style="2"/>
+    <col min="18" max="1005" width="11.28515625" style="2"/>
+    <col min="1006" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,19 +509,19 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
